--- a/GP05MOAS-PG514/Omaha_Cal_Info_GP05MOAS-PG514_00001.xlsx
+++ b/GP05MOAS-PG514/Omaha_Cal_Info_GP05MOAS-PG514_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\GP05MOAS-PG514\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1340" windowWidth="24560" windowHeight="9340" tabRatio="377"/>
+    <workbookView xWindow="45" yWindow="1335" windowWidth="24555" windowHeight="9345" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$88</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$381</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -84,9 +89,6 @@
     <t>Deployment Number</t>
   </si>
   <si>
-    <t>1000 m</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
   </si>
   <si>
@@ -136,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">Constant.   </t>
+  </si>
+  <si>
+    <t>Summer 2015 profiling glider has a special configuration and there is no flort</t>
   </si>
 </sst>
 </file>
@@ -387,7 +392,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,9 +472,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -584,6 +586,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -878,20 +883,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,9 +933,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8">
         <v>514</v>
@@ -944,19 +951,19 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="22">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -980,27 +987,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>13</v>
@@ -1015,9 +1024,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="21">
         <v>514</v>
@@ -1031,7 +1040,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1039,7 +1048,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1053,9 +1062,9 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="21">
         <v>514</v>
@@ -1069,7 +1078,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1077,128 +1086,115 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="21"/>
       <c r="C5" s="14"/>
       <c r="D5" s="16"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1">
-      <c r="A6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="21">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="21">
         <v>514</v>
       </c>
-      <c r="C6" s="14">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="J6" s="14">
         <v>3500</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="K6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="31">
+        <v>124</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="27">
+        <v>514</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>3500</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="31">
-        <v>124</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1">
-      <c r="A7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="L7" s="32">
+        <v>700</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="27">
         <v>514</v>
       </c>
-      <c r="C7" s="28">
+      <c r="I8" s="28">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="J8" s="29">
         <v>3500</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="K8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="33">
-        <v>700</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1">
-      <c r="A8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="L8" s="33">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="27">
         <v>514</v>
       </c>
-      <c r="C8" s="28">
+      <c r="I9" s="28">
         <v>1</v>
       </c>
-      <c r="D8" s="29">
+      <c r="J9" s="29">
         <v>3500</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="K9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="34">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1">
-      <c r="A9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="27">
-        <v>514</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>3500</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="L9" s="34">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="35">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1">
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="21"/>
       <c r="C10" s="14"/>
@@ -1212,9 +1208,9 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="21">
         <v>514</v>
@@ -1228,10 +1224,10 @@
       <c r="E11" s="15"/>
       <c r="F11" s="23"/>
       <c r="G11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="21"/>
       <c r="C12" s="14"/>
@@ -1245,9 +1241,9 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="21">
         <v>514</v>
@@ -1261,7 +1257,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1269,7 +1265,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
